--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_21.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>838822.2374237207</v>
+        <v>831627.6909765793</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7263267.641149115</v>
+        <v>7263267.641149114</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>28.66787928606706</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -710,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>74.80315499403864</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>159.5623709710786</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>175.4681753671757</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>79.30363001464858</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H8" t="n">
-        <v>16.72973301381641</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>45.85012795382152</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>62.58515663460756</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>323.9918595228954</v>
+        <v>314.7373700936074</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>135.275240877313</v>
       </c>
       <c r="H12" t="n">
-        <v>92.26024958059011</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I12" t="n">
-        <v>18.18624318344742</v>
+        <v>18.18624318344743</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.2570059982656</v>
+        <v>135.5753427036747</v>
       </c>
       <c r="H13" t="n">
         <v>146.8105729959039</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.7400456010095</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.5367941620016</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2244489913895</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>339.0399185806816</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.2570059982656</v>
+        <v>135.5753427036747</v>
       </c>
       <c r="H16" t="n">
         <v>146.8105729959039</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>99.32764374521086</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>193.7981713870603</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>77.81901229782954</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2244489913895</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,19 +1844,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>277.8276099403679</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>376.184863643924</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I19" t="n">
         <v>103.3051669679944</v>
@@ -2050,25 +2050,25 @@
         <v>99.32764374521086</v>
       </c>
       <c r="S19" t="n">
-        <v>193.7981713870603</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>220.5367941620016</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2244489913895</v>
+        <v>273.5801877212655</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>17.91049905836643</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,16 +2084,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>104.1095586786059</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2135,13 +2135,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>188.6754188534519</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,7 +2251,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>133.553439343745</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>128.8059294564327</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2244489913895</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>1.276475703477205</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,13 +2527,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>214.1549839962954</v>
       </c>
       <c r="U25" t="n">
         <v>286.2244489913895</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,22 +2555,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>277.8276099403674</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H26" t="n">
-        <v>26.94389492651069</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>138.8854516766552</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.2570059982656</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>146.8105729959039</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>103.3051669679944</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>99.32764374521086</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>193.7981713870603</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>220.5367941620016</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2244489913895</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>2.703266158759536</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2801,10 +2801,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>376.184863643924</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>376.1848636439235</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.2570059982656</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>146.8105729959039</v>
       </c>
       <c r="I31" t="n">
-        <v>103.3051669679944</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>38.306259110958</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>193.7981713870603</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.5367941620016</v>
+        <v>52.92923096992587</v>
       </c>
       <c r="U31" t="n">
         <v>286.2244489913895</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>60.48389944297953</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>339.0399185806811</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3196,16 +3196,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>72.62350367340355</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,10 +3244,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>244.5891323539128</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>277.8276099403674</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.4371413535349</v>
       </c>
       <c r="H35" t="n">
-        <v>187.6202402797283</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0364052149085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3433,16 +3433,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>114.7393847283404</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,16 +3475,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.5367941620016</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.0523381919121</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3506,16 +3506,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3557,13 +3557,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>81.1220065286369</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>28.87123646700307</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>146.8105729959039</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>103.3051669679944</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,10 +3724,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>53.27732104186419</v>
       </c>
     </row>
     <row r="41">
@@ -3743,16 +3743,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>323.9918595228949</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>26.94389492651078</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3910,10 +3910,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>61.84912153757799</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I43" t="n">
         <v>103.3051669679944</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>220.5367941620016</v>
+        <v>207.8925328918777</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3986,16 +3986,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>120.5377562773763</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>189.1911187465018</v>
       </c>
       <c r="H44" t="n">
-        <v>299.8862654257798</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>61.44749355031655</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.1742023667267</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4141,7 +4141,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>24.35088753711308</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,19 +4183,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>138.8854516766543</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>920.3919303875161</v>
+        <v>1701.775251950352</v>
       </c>
       <c r="C2" t="n">
-        <v>920.3919303875161</v>
+        <v>1332.81273500994</v>
       </c>
       <c r="D2" t="n">
-        <v>920.3919303875161</v>
+        <v>974.5470364031896</v>
       </c>
       <c r="E2" t="n">
-        <v>534.603677789272</v>
+        <v>974.5470364031896</v>
       </c>
       <c r="F2" t="n">
-        <v>534.603677789272</v>
+        <v>563.5611316135821</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4325,22 +4325,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2621.590348600001</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2367.828563238093</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2036.765675894522</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W2" t="n">
-        <v>1683.997020624408</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X2" t="n">
-        <v>1310.531262363328</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="Y2" t="n">
-        <v>920.3919303875161</v>
+        <v>2088.375092014473</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4383,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>412.2086804271149</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C5" t="n">
-        <v>412.2086804271149</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D5" t="n">
-        <v>53.94298182036445</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E5" t="n">
-        <v>53.94298182036445</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F5" t="n">
-        <v>53.94298182036445</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>368.5830699172734</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2246.245153341813</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1915.182265998242</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1562.413610728128</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1188.947852467049</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>798.8085204912368</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>291.7960311703076</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>291.7960311703076</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>291.7960311703076</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>291.7960311703076</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>291.7960311703076</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>291.7960311703076</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>134.0476586028378</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1236.578376364604</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C8" t="n">
-        <v>867.6158594241924</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D8" t="n">
-        <v>867.6158594241924</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E8" t="n">
-        <v>481.8276068259482</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F8" t="n">
-        <v>70.84170203634062</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G8" t="n">
-        <v>70.84170203634062</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,25 +4802,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>478.6443448337932</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1031.457603079992</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>1663.175414063304</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4838,16 +4838,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2013.317548404538</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1623.178216428726</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1441.490579173192</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1053.877663279709</v>
+        <v>423.447068407922</v>
       </c>
       <c r="C10" t="n">
-        <v>884.9414803518023</v>
+        <v>254.510885480015</v>
       </c>
       <c r="D10" t="n">
-        <v>734.8248409394665</v>
+        <v>254.510885480015</v>
       </c>
       <c r="E10" t="n">
-        <v>586.9117473570734</v>
+        <v>254.510885480015</v>
       </c>
       <c r="F10" t="n">
-        <v>440.021799859163</v>
+        <v>254.510885480015</v>
       </c>
       <c r="G10" t="n">
-        <v>271.4149548545464</v>
+        <v>208.1976249205994</v>
       </c>
       <c r="H10" t="n">
-        <v>117.1603117543115</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -5002,10 +5002,10 @@
         <v>1053.877663279709</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>825.8881123816918</v>
       </c>
       <c r="Y10" t="n">
-        <v>1053.877663279709</v>
+        <v>605.0955332381617</v>
       </c>
     </row>
     <row r="11">
@@ -5021,31 +5021,31 @@
         <v>1177.981643776797</v>
       </c>
       <c r="D11" t="n">
-        <v>1177.981643776797</v>
+        <v>819.715945170047</v>
       </c>
       <c r="E11" t="n">
-        <v>792.1933911785532</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="F11" t="n">
-        <v>381.2074863889456</v>
+        <v>433.9276925718028</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>116.0111571237145</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>116.0111571237145</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>199.5143021373488</v>
+        <v>199.5143021373485</v>
       </c>
       <c r="K11" t="n">
-        <v>468.4264940665503</v>
+        <v>468.4264940665499</v>
       </c>
       <c r="L11" t="n">
-        <v>838.9376088552594</v>
+        <v>838.9376088552592</v>
       </c>
       <c r="M11" t="n">
         <v>1282.872051350724</v>
@@ -5106,13 +5106,13 @@
         <v>448.681311148379</v>
       </c>
       <c r="F12" t="n">
-        <v>302.1467531752639</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G12" t="n">
         <v>165.5050957234327</v>
       </c>
       <c r="H12" t="n">
-        <v>72.3129244299073</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5121,25 +5121,25 @@
         <v>246.6565409677914</v>
       </c>
       <c r="K12" t="n">
-        <v>537.8115956207097</v>
+        <v>509.8374395364953</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2309936650815</v>
+        <v>817.2568375808671</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.331799318883</v>
+        <v>1195.357643234668</v>
       </c>
       <c r="N12" t="n">
-        <v>1625.848453140027</v>
+        <v>1597.874297055812</v>
       </c>
       <c r="O12" t="n">
-        <v>1971.85275817634</v>
+        <v>1943.878602092125</v>
       </c>
       <c r="P12" t="n">
-        <v>2230.218651003075</v>
+        <v>2202.24449491886</v>
       </c>
       <c r="Q12" t="n">
-        <v>2560.986726597623</v>
+        <v>2533.012570513408</v>
       </c>
       <c r="R12" t="n">
         <v>2560.986726597623</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>474.5215130952774</v>
+        <v>1057.385797430378</v>
       </c>
       <c r="C13" t="n">
-        <v>474.5215130952774</v>
+        <v>888.4496145024714</v>
       </c>
       <c r="D13" t="n">
-        <v>474.5215130952774</v>
+        <v>738.3329750901356</v>
       </c>
       <c r="E13" t="n">
-        <v>474.5215130952774</v>
+        <v>590.4198815077425</v>
       </c>
       <c r="F13" t="n">
-        <v>474.5215130952774</v>
+        <v>443.5299340098321</v>
       </c>
       <c r="G13" t="n">
         <v>306.5851434000597</v>
@@ -5197,16 +5197,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>82.88339090485943</v>
+        <v>82.8833909048594</v>
       </c>
       <c r="K13" t="n">
-        <v>260.2782098866546</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L13" t="n">
-        <v>542.8089378877605</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M13" t="n">
-        <v>851.0870999282812</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N13" t="n">
         <v>1157.469712732903</v>
@@ -5218,31 +5218,31 @@
         <v>1629.372157534689</v>
       </c>
       <c r="Q13" t="n">
-        <v>1687.816392302166</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R13" t="n">
-        <v>1687.816392302166</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="S13" t="n">
-        <v>1530.503214927409</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="T13" t="n">
-        <v>1307.738776379932</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="U13" t="n">
-        <v>1018.623171338125</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="V13" t="n">
-        <v>763.9386831322381</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="W13" t="n">
-        <v>474.5215130952774</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="X13" t="n">
-        <v>474.5215130952774</v>
+        <v>1459.826841404148</v>
       </c>
       <c r="Y13" t="n">
-        <v>474.5215130952774</v>
+        <v>1239.034262260618</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1577.945354755378</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C14" t="n">
-        <v>1208.982837814967</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D14" t="n">
-        <v>850.7171392082162</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E14" t="n">
-        <v>464.928886609972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F14" t="n">
         <v>53.94298182036445</v>
@@ -5279,10 +5279,10 @@
         <v>199.5143021373487</v>
       </c>
       <c r="K14" t="n">
-        <v>468.4264940665503</v>
+        <v>468.4264940665501</v>
       </c>
       <c r="L14" t="n">
-        <v>838.9376088552594</v>
+        <v>838.9376088552593</v>
       </c>
       <c r="M14" t="n">
         <v>1282.872051350724</v>
@@ -5312,16 +5312,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X14" t="n">
-        <v>2354.684526795312</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y14" t="n">
-        <v>1964.5451948195</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>246.6565409677914</v>
       </c>
       <c r="K15" t="n">
-        <v>440.8349669871898</v>
+        <v>537.8115956207102</v>
       </c>
       <c r="L15" t="n">
-        <v>748.2543650315615</v>
+        <v>845.230993665082</v>
       </c>
       <c r="M15" t="n">
-        <v>1166.280567971507</v>
+        <v>1223.331799318883</v>
       </c>
       <c r="N15" t="n">
-        <v>1833.824967998518</v>
+        <v>1625.848453140027</v>
       </c>
       <c r="O15" t="n">
-        <v>2179.829273034831</v>
+        <v>1971.85275817634</v>
       </c>
       <c r="P15" t="n">
-        <v>2438.195165861565</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q15" t="n">
         <v>2560.986726597623</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>769.3245541755809</v>
+        <v>1057.385797430378</v>
       </c>
       <c r="C16" t="n">
-        <v>769.3245541755809</v>
+        <v>888.4496145024714</v>
       </c>
       <c r="D16" t="n">
-        <v>769.3245541755809</v>
+        <v>738.3329750901356</v>
       </c>
       <c r="E16" t="n">
-        <v>621.4114605931878</v>
+        <v>590.4198815077425</v>
       </c>
       <c r="F16" t="n">
-        <v>474.5215130952774</v>
+        <v>443.5299340098321</v>
       </c>
       <c r="G16" t="n">
         <v>306.5851434000597</v>
@@ -5458,28 +5458,28 @@
         <v>1687.816392302165</v>
       </c>
       <c r="R16" t="n">
-        <v>1587.485439024174</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="S16" t="n">
-        <v>1391.729710350376</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="T16" t="n">
-        <v>1313.124647423276</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="U16" t="n">
-        <v>1024.009042381468</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="V16" t="n">
-        <v>769.3245541755809</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="W16" t="n">
-        <v>769.3245541755809</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="X16" t="n">
-        <v>769.3245541755809</v>
+        <v>1459.826841404148</v>
       </c>
       <c r="Y16" t="n">
-        <v>769.3245541755809</v>
+        <v>1239.034262260618</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>1177.981643776797</v>
+        <v>1266.310211282494</v>
       </c>
       <c r="D17" t="n">
-        <v>819.715945170047</v>
+        <v>1266.310211282494</v>
       </c>
       <c r="E17" t="n">
-        <v>433.9276925718028</v>
+        <v>880.5219586842497</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>469.5360538946421</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1067.468569516813</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C18" t="n">
-        <v>893.0155402356858</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D18" t="n">
-        <v>744.0811305744345</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E18" t="n">
-        <v>584.8436755689791</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F18" t="n">
-        <v>438.309117595864</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G18" t="n">
-        <v>301.6674601440327</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H18" t="n">
-        <v>208.4752888505073</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I18" t="n">
-        <v>190.1053462409644</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>382.8189053883913</v>
+        <v>246.6565409677914</v>
       </c>
       <c r="K18" t="n">
-        <v>673.9739600413097</v>
+        <v>537.8115956207102</v>
       </c>
       <c r="L18" t="n">
-        <v>981.3933580856815</v>
+        <v>845.230993665082</v>
       </c>
       <c r="M18" t="n">
-        <v>1359.494163739483</v>
+        <v>1223.331799318883</v>
       </c>
       <c r="N18" t="n">
-        <v>1762.010817560627</v>
+        <v>1625.848453140027</v>
       </c>
       <c r="O18" t="n">
-        <v>2108.01512259694</v>
+        <v>1971.85275817634</v>
       </c>
       <c r="P18" t="n">
-        <v>2366.381015423674</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R18" t="n">
-        <v>2697.149091018222</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S18" t="n">
-        <v>2562.537125127303</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T18" t="n">
-        <v>2368.771343470031</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U18" t="n">
-        <v>2140.685170467312</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V18" t="n">
-        <v>1905.533062235569</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W18" t="n">
-        <v>1651.295705507368</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X18" t="n">
-        <v>1443.444205301835</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y18" t="n">
-        <v>1235.683906536881</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1167.624334039446</v>
+        <v>1088.377376515824</v>
       </c>
       <c r="C19" t="n">
-        <v>1167.624334039446</v>
+        <v>919.4411935879167</v>
       </c>
       <c r="D19" t="n">
-        <v>1167.624334039446</v>
+        <v>769.3245541755809</v>
       </c>
       <c r="E19" t="n">
-        <v>1167.624334039446</v>
+        <v>621.4114605931878</v>
       </c>
       <c r="F19" t="n">
-        <v>1167.624334039446</v>
+        <v>474.5215130952774</v>
       </c>
       <c r="G19" t="n">
-        <v>1167.624334039446</v>
+        <v>306.5851434000597</v>
       </c>
       <c r="H19" t="n">
-        <v>1167.624334039446</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="I19" t="n">
-        <v>1063.275680536421</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>1092.216089620916</v>
+        <v>82.8833909048594</v>
       </c>
       <c r="K19" t="n">
-        <v>1269.610908602711</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L19" t="n">
-        <v>1552.141636603817</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M19" t="n">
-        <v>1860.419798644338</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N19" t="n">
-        <v>2166.80241144896</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O19" t="n">
-        <v>2433.780048322411</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P19" t="n">
-        <v>2638.704856250746</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q19" t="n">
-        <v>2697.149091018222</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R19" t="n">
-        <v>2596.818137740232</v>
+        <v>1587.485439024174</v>
       </c>
       <c r="S19" t="n">
-        <v>2401.062409066433</v>
+        <v>1587.485439024174</v>
       </c>
       <c r="T19" t="n">
-        <v>2178.297970518957</v>
+        <v>1364.721000476698</v>
       </c>
       <c r="U19" t="n">
-        <v>1889.182365477149</v>
+        <v>1088.377376515824</v>
       </c>
       <c r="V19" t="n">
-        <v>1634.497877271262</v>
+        <v>1088.377376515824</v>
       </c>
       <c r="W19" t="n">
-        <v>1616.406464080993</v>
+        <v>1088.377376515824</v>
       </c>
       <c r="X19" t="n">
-        <v>1388.416913182976</v>
+        <v>1088.377376515824</v>
       </c>
       <c r="Y19" t="n">
-        <v>1167.624334039446</v>
+        <v>1088.377376515824</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1685.885348901494</v>
+        <v>811.4725751227061</v>
       </c>
       <c r="C20" t="n">
-        <v>1316.922831961083</v>
+        <v>442.5100581822944</v>
       </c>
       <c r="D20" t="n">
-        <v>958.6571333543322</v>
+        <v>442.5100581822944</v>
       </c>
       <c r="E20" t="n">
-        <v>572.8688807560879</v>
+        <v>56.72180558405014</v>
       </c>
       <c r="F20" t="n">
-        <v>161.8829759664804</v>
+        <v>56.72180558405014</v>
       </c>
       <c r="G20" t="n">
-        <v>56.72180558405015</v>
+        <v>56.72180558405014</v>
       </c>
       <c r="H20" t="n">
-        <v>56.72180558405015</v>
+        <v>56.72180558405014</v>
       </c>
       <c r="I20" t="n">
-        <v>56.72180558405015</v>
+        <v>56.72180558405014</v>
       </c>
       <c r="J20" t="n">
         <v>202.2931259010344</v>
@@ -5762,40 +5762,40 @@
         <v>1285.65087511441</v>
       </c>
       <c r="N20" t="n">
-        <v>1877.544813808054</v>
+        <v>1741.382449387454</v>
       </c>
       <c r="O20" t="n">
-        <v>2294.543955120661</v>
+        <v>2158.381590700062</v>
       </c>
       <c r="P20" t="n">
-        <v>2615.942073755913</v>
+        <v>2479.779709335314</v>
       </c>
       <c r="Q20" t="n">
-        <v>2809.125929301245</v>
+        <v>2809.125929301244</v>
       </c>
       <c r="R20" t="n">
-        <v>2836.090279202508</v>
+        <v>2836.090279202507</v>
       </c>
       <c r="S20" t="n">
-        <v>2836.090279202508</v>
+        <v>2836.090279202507</v>
       </c>
       <c r="T20" t="n">
-        <v>2836.090279202508</v>
+        <v>2836.090279202507</v>
       </c>
       <c r="U20" t="n">
-        <v>2836.090279202508</v>
+        <v>2645.509048037404</v>
       </c>
       <c r="V20" t="n">
-        <v>2836.090279202508</v>
+        <v>2314.446160693833</v>
       </c>
       <c r="W20" t="n">
-        <v>2836.090279202508</v>
+        <v>1961.677505423719</v>
       </c>
       <c r="X20" t="n">
-        <v>2462.624520941428</v>
+        <v>1588.21174716264</v>
       </c>
       <c r="Y20" t="n">
-        <v>2072.485188965616</v>
+        <v>1198.072415186828</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>168.2839194871184</v>
       </c>
       <c r="H21" t="n">
-        <v>75.09174819359302</v>
+        <v>75.09174819359301</v>
       </c>
       <c r="I21" t="n">
-        <v>56.72180558405015</v>
+        <v>56.72180558405014</v>
       </c>
       <c r="J21" t="n">
-        <v>249.4353647314771</v>
+        <v>124.6052397444723</v>
       </c>
       <c r="K21" t="n">
-        <v>540.5904193843962</v>
+        <v>318.7836657638708</v>
       </c>
       <c r="L21" t="n">
-        <v>848.009817428768</v>
+        <v>756.5706420057818</v>
       </c>
       <c r="M21" t="n">
-        <v>1226.110623082569</v>
+        <v>1134.671447659583</v>
       </c>
       <c r="N21" t="n">
-        <v>1628.627276903713</v>
+        <v>1836.603791762204</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.631581940026</v>
+        <v>2182.608096798517</v>
       </c>
       <c r="P21" t="n">
-        <v>2232.997474766761</v>
+        <v>2440.973989625251</v>
       </c>
       <c r="Q21" t="n">
         <v>2563.765550361309</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>351.5248466643536</v>
+        <v>805.480132988177</v>
       </c>
       <c r="C22" t="n">
-        <v>351.5248466643536</v>
+        <v>636.5439500602702</v>
       </c>
       <c r="D22" t="n">
-        <v>351.5248466643536</v>
+        <v>486.4273106479344</v>
       </c>
       <c r="E22" t="n">
-        <v>203.6117530819605</v>
+        <v>338.5142170655413</v>
       </c>
       <c r="F22" t="n">
-        <v>56.72180558405015</v>
+        <v>191.6242695676309</v>
       </c>
       <c r="G22" t="n">
-        <v>56.72180558405015</v>
+        <v>56.72180558405014</v>
       </c>
       <c r="H22" t="n">
-        <v>56.72180558405015</v>
+        <v>56.72180558405014</v>
       </c>
       <c r="I22" t="n">
-        <v>56.72180558405015</v>
+        <v>56.72180558405014</v>
       </c>
       <c r="J22" t="n">
-        <v>85.6622146685451</v>
+        <v>85.66221466854509</v>
       </c>
       <c r="K22" t="n">
-        <v>263.0570336503402</v>
+        <v>263.0570336503401</v>
       </c>
       <c r="L22" t="n">
         <v>545.587761651446</v>
@@ -5935,25 +5935,25 @@
         <v>1690.595216065851</v>
       </c>
       <c r="S22" t="n">
-        <v>1560.488216614909</v>
+        <v>1690.595216065851</v>
       </c>
       <c r="T22" t="n">
-        <v>1560.488216614909</v>
+        <v>1690.595216065851</v>
       </c>
       <c r="U22" t="n">
-        <v>1271.372611573101</v>
+        <v>1690.595216065851</v>
       </c>
       <c r="V22" t="n">
-        <v>1271.372611573101</v>
+        <v>1435.910727859964</v>
       </c>
       <c r="W22" t="n">
-        <v>981.9554415361408</v>
+        <v>1435.910727859964</v>
       </c>
       <c r="X22" t="n">
-        <v>753.9658906381235</v>
+        <v>1207.921176961947</v>
       </c>
       <c r="Y22" t="n">
-        <v>533.1733114945933</v>
+        <v>987.1285978184168</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>96.3795663235676</v>
       </c>
       <c r="J23" t="n">
-        <v>409.3565356609049</v>
+        <v>241.9508866405519</v>
       </c>
       <c r="K23" t="n">
-        <v>856.7278283716228</v>
+        <v>831.7670370152064</v>
       </c>
       <c r="L23" t="n">
-        <v>1640.723545565278</v>
+        <v>1615.762754208862</v>
       </c>
       <c r="M23" t="n">
-        <v>2529.676386218647</v>
+        <v>2504.71559486223</v>
       </c>
       <c r="N23" t="n">
-        <v>3418.381415659555</v>
+        <v>3393.420624303139</v>
       </c>
       <c r="O23" t="n">
-        <v>4212.37273642228</v>
+        <v>4187.411945065865</v>
       </c>
       <c r="P23" t="n">
-        <v>4533.770855057533</v>
+        <v>4598.830110731785</v>
       </c>
       <c r="Q23" t="n">
-        <v>4726.954710602865</v>
+        <v>4792.013966277117</v>
       </c>
       <c r="R23" t="n">
         <v>4818.97831617838</v>
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3189.29779467697</v>
+        <v>973.7427895994159</v>
       </c>
       <c r="C24" t="n">
-        <v>3014.844765395843</v>
+        <v>799.2897603182889</v>
       </c>
       <c r="D24" t="n">
-        <v>2865.910355734592</v>
+        <v>650.3553506570377</v>
       </c>
       <c r="E24" t="n">
-        <v>2706.672900729136</v>
+        <v>491.1178956515822</v>
       </c>
       <c r="F24" t="n">
-        <v>2560.138342756021</v>
+        <v>344.5833376784672</v>
       </c>
       <c r="G24" t="n">
-        <v>2423.49668530419</v>
+        <v>207.9416802266359</v>
       </c>
       <c r="H24" t="n">
-        <v>2330.304514010664</v>
+        <v>114.7495089331105</v>
       </c>
       <c r="I24" t="n">
-        <v>2311.934571401122</v>
+        <v>96.3795663235676</v>
       </c>
       <c r="J24" t="n">
-        <v>2504.648130548549</v>
+        <v>164.2630004839898</v>
       </c>
       <c r="K24" t="n">
-        <v>2795.803185201467</v>
+        <v>358.4414265033882</v>
       </c>
       <c r="L24" t="n">
-        <v>3103.222583245839</v>
+        <v>665.8608245477601</v>
       </c>
       <c r="M24" t="n">
-        <v>3481.323388899641</v>
+        <v>1043.961630201561</v>
       </c>
       <c r="N24" t="n">
-        <v>3883.840042720784</v>
+        <v>1876.261552501721</v>
       </c>
       <c r="O24" t="n">
-        <v>4229.844347757097</v>
+        <v>2222.265857538034</v>
       </c>
       <c r="P24" t="n">
-        <v>4488.210240583832</v>
+        <v>2480.631750364769</v>
       </c>
       <c r="Q24" t="n">
-        <v>4818.97831617838</v>
+        <v>2603.423311100826</v>
       </c>
       <c r="R24" t="n">
-        <v>4818.97831617838</v>
+        <v>2603.423311100826</v>
       </c>
       <c r="S24" t="n">
-        <v>4684.36635028746</v>
+        <v>2468.811345209906</v>
       </c>
       <c r="T24" t="n">
-        <v>4490.600568630188</v>
+        <v>2275.045563552634</v>
       </c>
       <c r="U24" t="n">
-        <v>4262.514395627469</v>
+        <v>2046.959390549915</v>
       </c>
       <c r="V24" t="n">
-        <v>4027.362287395726</v>
+        <v>1811.807282318172</v>
       </c>
       <c r="W24" t="n">
-        <v>3773.124930667524</v>
+        <v>1557.569925589971</v>
       </c>
       <c r="X24" t="n">
-        <v>3565.273430461992</v>
+        <v>1349.718425384438</v>
       </c>
       <c r="Y24" t="n">
-        <v>3357.513131697038</v>
+        <v>1141.958126619484</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.6051186489262</v>
+        <v>707.4124851757595</v>
       </c>
       <c r="C25" t="n">
-        <v>97.66893572101932</v>
+        <v>707.4124851757595</v>
       </c>
       <c r="D25" t="n">
-        <v>97.66893572101932</v>
+        <v>707.4124851757595</v>
       </c>
       <c r="E25" t="n">
-        <v>97.66893572101932</v>
+        <v>559.4993915933663</v>
       </c>
       <c r="F25" t="n">
-        <v>97.66893572101932</v>
+        <v>412.609444095456</v>
       </c>
       <c r="G25" t="n">
-        <v>96.3795663235676</v>
+        <v>244.6730744002382</v>
       </c>
       <c r="H25" t="n">
         <v>96.3795663235676</v>
@@ -6175,22 +6175,22 @@
         <v>1730.252976805369</v>
       </c>
       <c r="T25" t="n">
-        <v>1730.252976805369</v>
+        <v>1513.934811152545</v>
       </c>
       <c r="U25" t="n">
-        <v>1441.137371763561</v>
+        <v>1224.819206110737</v>
       </c>
       <c r="V25" t="n">
-        <v>1186.452883557674</v>
+        <v>1224.819206110737</v>
       </c>
       <c r="W25" t="n">
-        <v>897.0357135207134</v>
+        <v>935.4020360737768</v>
       </c>
       <c r="X25" t="n">
-        <v>669.0461626226961</v>
+        <v>707.4124851757595</v>
       </c>
       <c r="Y25" t="n">
-        <v>448.253583479166</v>
+        <v>707.4124851757595</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1194.175505447095</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C26" t="n">
-        <v>825.2129885066831</v>
+        <v>1266.310211282494</v>
       </c>
       <c r="D26" t="n">
-        <v>466.9472898999326</v>
+        <v>1266.310211282494</v>
       </c>
       <c r="E26" t="n">
-        <v>81.15903730168839</v>
+        <v>880.5219586842497</v>
       </c>
       <c r="F26" t="n">
-        <v>81.15903730168839</v>
+        <v>469.5360538946421</v>
       </c>
       <c r="G26" t="n">
-        <v>81.15903730168839</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
         <v>199.5143021373487</v>
       </c>
       <c r="K26" t="n">
-        <v>468.42649406655</v>
+        <v>468.4264940665501</v>
       </c>
       <c r="L26" t="n">
         <v>838.9376088552594</v>
@@ -6263,13 +6263,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>2344.380435748108</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X26" t="n">
-        <v>1970.914677487028</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y26" t="n">
-        <v>1580.775345511217</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>165.5050957234327</v>
       </c>
       <c r="H27" t="n">
-        <v>72.31292442990731</v>
+        <v>72.3129244299073</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>246.6565409677914</v>
+        <v>246.6565409677913</v>
       </c>
       <c r="K27" t="n">
-        <v>537.8115956207102</v>
+        <v>440.8349669871898</v>
       </c>
       <c r="L27" t="n">
-        <v>845.230993665082</v>
+        <v>748.2543650315615</v>
       </c>
       <c r="M27" t="n">
-        <v>1223.331799318883</v>
+        <v>1126.355170685363</v>
       </c>
       <c r="N27" t="n">
-        <v>1625.848453140027</v>
+        <v>1793.899570712373</v>
       </c>
       <c r="O27" t="n">
-        <v>1971.85275817634</v>
+        <v>2139.903875748686</v>
       </c>
       <c r="P27" t="n">
-        <v>2230.218651003075</v>
+        <v>2398.269768575421</v>
       </c>
       <c r="Q27" t="n">
         <v>2560.986726597623</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1631.767305393727</v>
+        <v>1522.616837903588</v>
       </c>
       <c r="C28" t="n">
-        <v>1631.767305393727</v>
+        <v>1353.680654975681</v>
       </c>
       <c r="D28" t="n">
-        <v>1631.767305393727</v>
+        <v>1203.564015563345</v>
       </c>
       <c r="E28" t="n">
-        <v>1483.854211811334</v>
+        <v>1063.275680536421</v>
       </c>
       <c r="F28" t="n">
-        <v>1483.854211811334</v>
+        <v>1063.275680536421</v>
       </c>
       <c r="G28" t="n">
-        <v>1315.917842116116</v>
+        <v>1063.275680536421</v>
       </c>
       <c r="H28" t="n">
-        <v>1167.624334039446</v>
+        <v>1063.275680536421</v>
       </c>
       <c r="I28" t="n">
         <v>1063.275680536421</v>
@@ -6391,43 +6391,43 @@
         <v>1552.141636603817</v>
       </c>
       <c r="M28" t="n">
-        <v>1860.419798644338</v>
+        <v>1860.419798644337</v>
       </c>
       <c r="N28" t="n">
-        <v>2166.80241144896</v>
+        <v>2166.802411448959</v>
       </c>
       <c r="O28" t="n">
-        <v>2433.780048322411</v>
+        <v>2433.78004832241</v>
       </c>
       <c r="P28" t="n">
-        <v>2638.704856250746</v>
+        <v>2638.704856250745</v>
       </c>
       <c r="Q28" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.818137740232</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S28" t="n">
-        <v>2401.062409066433</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T28" t="n">
-        <v>2178.297970518957</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U28" t="n">
-        <v>1889.182365477149</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V28" t="n">
-        <v>1634.497877271262</v>
+        <v>2442.464602812335</v>
       </c>
       <c r="W28" t="n">
-        <v>1631.767305393727</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="X28" t="n">
-        <v>1631.767305393727</v>
+        <v>1925.057881877357</v>
       </c>
       <c r="Y28" t="n">
-        <v>1631.767305393727</v>
+        <v>1704.265302733827</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>1177.981643776797</v>
       </c>
       <c r="D29" t="n">
-        <v>819.715945170047</v>
+        <v>819.7159451700466</v>
       </c>
       <c r="E29" t="n">
-        <v>433.9276925718028</v>
+        <v>433.9276925718023</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036445</v>
+        <v>433.9276925718023</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
         <v>199.5143021373487</v>
       </c>
       <c r="K29" t="n">
-        <v>468.4264940665502</v>
+        <v>468.4264940665501</v>
       </c>
       <c r="L29" t="n">
         <v>838.9376088552594</v>
@@ -6503,10 +6503,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.544000781331</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1067.468569516813</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C30" t="n">
-        <v>893.0155402356858</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D30" t="n">
-        <v>744.0811305744345</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E30" t="n">
-        <v>584.8436755689791</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F30" t="n">
-        <v>438.309117595864</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G30" t="n">
-        <v>301.6674601440327</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H30" t="n">
-        <v>208.4752888505073</v>
+        <v>72.3129244299073</v>
       </c>
       <c r="I30" t="n">
-        <v>190.1053462409644</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
-        <v>382.8189053883913</v>
+        <v>246.6565409677913</v>
       </c>
       <c r="K30" t="n">
-        <v>673.9739600413097</v>
+        <v>537.8115956207102</v>
       </c>
       <c r="L30" t="n">
-        <v>981.3933580856815</v>
+        <v>845.230993665082</v>
       </c>
       <c r="M30" t="n">
-        <v>1359.494163739483</v>
+        <v>1223.331799318883</v>
       </c>
       <c r="N30" t="n">
-        <v>1762.010817560627</v>
+        <v>1625.848453140027</v>
       </c>
       <c r="O30" t="n">
-        <v>2108.01512259694</v>
+        <v>1971.85275817634</v>
       </c>
       <c r="P30" t="n">
-        <v>2366.381015423674</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R30" t="n">
-        <v>2697.149091018222</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S30" t="n">
-        <v>2562.537125127303</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T30" t="n">
-        <v>2368.771343470031</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U30" t="n">
-        <v>2140.685170467312</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V30" t="n">
-        <v>1905.533062235569</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W30" t="n">
-        <v>1651.295705507368</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X30" t="n">
-        <v>1443.444205301835</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y30" t="n">
-        <v>1235.683906536881</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6595,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>941.4874290179132</v>
+        <v>352.3531293093707</v>
       </c>
       <c r="C31" t="n">
-        <v>772.5512460900063</v>
+        <v>352.3531293093707</v>
       </c>
       <c r="D31" t="n">
-        <v>622.4346066776706</v>
+        <v>202.236489897035</v>
       </c>
       <c r="E31" t="n">
-        <v>474.5215130952774</v>
+        <v>202.236489897035</v>
       </c>
       <c r="F31" t="n">
-        <v>474.5215130952774</v>
+        <v>202.236489897035</v>
       </c>
       <c r="G31" t="n">
-        <v>306.5851434000597</v>
+        <v>202.236489897035</v>
       </c>
       <c r="H31" t="n">
-        <v>158.2916353233891</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J31" t="n">
-        <v>82.8833909048594</v>
+        <v>82.88339090485938</v>
       </c>
       <c r="K31" t="n">
         <v>260.2782098866545</v>
@@ -6643,28 +6643,28 @@
         <v>1687.816392302165</v>
       </c>
       <c r="R31" t="n">
-        <v>1649.123201280996</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="S31" t="n">
-        <v>1453.367472607197</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="T31" t="n">
-        <v>1230.603034059721</v>
+        <v>1634.352522635573</v>
       </c>
       <c r="U31" t="n">
-        <v>941.4874290179132</v>
+        <v>1345.236917593766</v>
       </c>
       <c r="V31" t="n">
-        <v>941.4874290179132</v>
+        <v>1090.552429387879</v>
       </c>
       <c r="W31" t="n">
-        <v>941.4874290179132</v>
+        <v>801.1352593509182</v>
       </c>
       <c r="X31" t="n">
-        <v>941.4874290179132</v>
+        <v>573.1457084529009</v>
       </c>
       <c r="Y31" t="n">
-        <v>941.4874290179132</v>
+        <v>352.3531293093707</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1192.157102157134</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C32" t="n">
-        <v>823.1945852167225</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D32" t="n">
-        <v>464.928886609972</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E32" t="n">
         <v>464.928886609972</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
         <v>199.5143021373487</v>
@@ -6716,10 +6716,10 @@
         <v>2155.602766936376</v>
       </c>
       <c r="P32" t="n">
-        <v>2477.000885571628</v>
+        <v>2477.000885571627</v>
       </c>
       <c r="Q32" t="n">
-        <v>2670.18474111696</v>
+        <v>2670.184741116959</v>
       </c>
       <c r="R32" t="n">
         <v>2697.149091018222</v>
@@ -6731,19 +6731,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2636.054243096021</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2304.99135575245</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W32" t="n">
-        <v>1952.222700482336</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X32" t="n">
-        <v>1578.756942221256</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y32" t="n">
-        <v>1578.756942221256</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="33">
@@ -6771,13 +6771,13 @@
         <v>165.5050957234327</v>
       </c>
       <c r="H33" t="n">
-        <v>72.31292442990731</v>
+        <v>72.3129244299073</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>246.6565409677914</v>
+        <v>246.6565409677913</v>
       </c>
       <c r="K33" t="n">
         <v>537.8115956207102</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>520.9088977430002</v>
+        <v>1057.385797430378</v>
       </c>
       <c r="C34" t="n">
-        <v>351.9727148150933</v>
+        <v>888.4496145024714</v>
       </c>
       <c r="D34" t="n">
-        <v>201.8560754027576</v>
+        <v>738.3329750901356</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>590.4198815077425</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>443.5299340098321</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>275.5935643146144</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>127.3000562379438</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>82.8833909048594</v>
+        <v>82.88339090485938</v>
       </c>
       <c r="K34" t="n">
         <v>260.2782098866545</v>
@@ -6892,16 +6892,16 @@
         <v>1687.816392302165</v>
       </c>
       <c r="V34" t="n">
-        <v>1440.756662651748</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="W34" t="n">
-        <v>1151.339492614788</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="X34" t="n">
-        <v>923.3499417167701</v>
+        <v>1459.826841404148</v>
       </c>
       <c r="Y34" t="n">
-        <v>702.55736257324</v>
+        <v>1239.034262260618</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1386.279663663752</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C35" t="n">
-        <v>1017.31714672334</v>
+        <v>1266.310211282494</v>
       </c>
       <c r="D35" t="n">
-        <v>659.0514481165899</v>
+        <v>1266.310211282494</v>
       </c>
       <c r="E35" t="n">
-        <v>659.0514481165899</v>
+        <v>880.5219586842497</v>
       </c>
       <c r="F35" t="n">
-        <v>659.0514481165899</v>
+        <v>469.5360538946421</v>
       </c>
       <c r="G35" t="n">
-        <v>243.4583760423122</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
         <v>199.5143021373487</v>
       </c>
       <c r="K35" t="n">
-        <v>468.4264940665502</v>
+        <v>468.4264940665501</v>
       </c>
       <c r="L35" t="n">
         <v>838.9376088552594</v>
@@ -6968,19 +6968,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2443.576964538517</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2112.514077194946</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>1759.745421924832</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
-        <v>1386.279663663752</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y35" t="n">
-        <v>1386.279663663752</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="36">
@@ -7008,13 +7008,13 @@
         <v>165.5050957234327</v>
       </c>
       <c r="H36" t="n">
-        <v>72.31292442990731</v>
+        <v>72.3129244299073</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
-        <v>246.6565409677914</v>
+        <v>246.6565409677913</v>
       </c>
       <c r="K36" t="n">
         <v>537.8115956207102</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1530.241596459057</v>
+        <v>1057.385797430378</v>
       </c>
       <c r="C37" t="n">
-        <v>1361.30541353115</v>
+        <v>888.4496145024714</v>
       </c>
       <c r="D37" t="n">
-        <v>1211.188774118814</v>
+        <v>738.3329750901356</v>
       </c>
       <c r="E37" t="n">
-        <v>1063.275680536421</v>
+        <v>590.4198815077425</v>
       </c>
       <c r="F37" t="n">
-        <v>1063.275680536421</v>
+        <v>474.5215130952774</v>
       </c>
       <c r="G37" t="n">
-        <v>1063.275680536421</v>
+        <v>306.5851434000597</v>
       </c>
       <c r="H37" t="n">
-        <v>1063.275680536421</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="I37" t="n">
-        <v>1063.275680536421</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>1092.216089620916</v>
+        <v>82.88339090485938</v>
       </c>
       <c r="K37" t="n">
-        <v>1269.610908602711</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L37" t="n">
-        <v>1552.141636603817</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M37" t="n">
-        <v>1860.419798644338</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N37" t="n">
-        <v>2166.80241144896</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O37" t="n">
-        <v>2433.780048322411</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P37" t="n">
-        <v>2638.704856250746</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="T37" t="n">
-        <v>2474.384652470746</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="U37" t="n">
-        <v>2474.384652470746</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="V37" t="n">
-        <v>2450.089361367804</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="W37" t="n">
-        <v>2160.672191330844</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="X37" t="n">
-        <v>1932.682640432826</v>
+        <v>1459.826841404148</v>
       </c>
       <c r="Y37" t="n">
-        <v>1711.890061289296</v>
+        <v>1239.034262260618</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.944160717209</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C38" t="n">
-        <v>1177.981643776797</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D38" t="n">
-        <v>1177.981643776797</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E38" t="n">
-        <v>792.1933911785532</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F38" t="n">
-        <v>381.2074863889456</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
         <v>199.5143021373487</v>
       </c>
       <c r="K38" t="n">
-        <v>468.4264940665502</v>
+        <v>468.4264940665501</v>
       </c>
       <c r="L38" t="n">
         <v>838.9376088552594</v>
@@ -7187,13 +7187,13 @@
         <v>1738.603625623768</v>
       </c>
       <c r="O38" t="n">
-        <v>2155.602766936376</v>
+        <v>2155.602766936375</v>
       </c>
       <c r="P38" t="n">
-        <v>2477.000885571628</v>
+        <v>2477.000885571627</v>
       </c>
       <c r="Q38" t="n">
-        <v>2670.18474111696</v>
+        <v>2670.184741116959</v>
       </c>
       <c r="R38" t="n">
         <v>2697.149091018222</v>
@@ -7205,19 +7205,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.544000781331</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="39">
@@ -7245,13 +7245,13 @@
         <v>165.5050957234327</v>
       </c>
       <c r="H39" t="n">
-        <v>72.31292442990731</v>
+        <v>72.3129244299073</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>246.6565409677914</v>
+        <v>246.6565409677913</v>
       </c>
       <c r="K39" t="n">
         <v>537.8115956207102</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>335.7480085182446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C40" t="n">
-        <v>335.7480085182446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D40" t="n">
-        <v>335.7480085182446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E40" t="n">
-        <v>335.7480085182446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F40" t="n">
-        <v>335.7480085182446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G40" t="n">
-        <v>306.5851434000597</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>158.2916353233891</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>82.8833909048594</v>
+        <v>82.88339090485938</v>
       </c>
       <c r="K40" t="n">
         <v>260.2782098866545</v>
@@ -7372,10 +7372,10 @@
         <v>335.7480085182446</v>
       </c>
       <c r="X40" t="n">
-        <v>335.7480085182446</v>
+        <v>107.7584576202273</v>
       </c>
       <c r="Y40" t="n">
-        <v>335.7480085182446</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1166.959449965771</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C41" t="n">
-        <v>797.9969330253591</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D41" t="n">
-        <v>439.7312344186087</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036445</v>
+        <v>792.1933911785527</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>381.2074863889451</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
         <v>199.5143021373487</v>
       </c>
       <c r="K41" t="n">
-        <v>468.4264940665502</v>
+        <v>468.4264940665501</v>
       </c>
       <c r="L41" t="n">
         <v>838.9376088552594</v>
@@ -7442,19 +7442,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2669.933035536898</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2669.933035536898</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2317.164380266784</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X41" t="n">
-        <v>1943.698622005704</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y41" t="n">
-        <v>1553.559290029893</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="42">
@@ -7482,13 +7482,13 @@
         <v>165.5050957234327</v>
       </c>
       <c r="H42" t="n">
-        <v>72.31292442990731</v>
+        <v>72.3129244299073</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
-        <v>246.6565409677914</v>
+        <v>246.6565409677913</v>
       </c>
       <c r="K42" t="n">
         <v>537.8115956207102</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1843.954057598959</v>
+        <v>1088.377376515824</v>
       </c>
       <c r="C43" t="n">
-        <v>1675.017874671052</v>
+        <v>919.4411935879167</v>
       </c>
       <c r="D43" t="n">
-        <v>1524.901235258717</v>
+        <v>769.3245541755809</v>
       </c>
       <c r="E43" t="n">
-        <v>1376.988141676324</v>
+        <v>621.4114605931878</v>
       </c>
       <c r="F43" t="n">
-        <v>1230.098194178413</v>
+        <v>474.5215130952774</v>
       </c>
       <c r="G43" t="n">
-        <v>1167.624334039446</v>
+        <v>306.5851434000597</v>
       </c>
       <c r="H43" t="n">
-        <v>1167.624334039446</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="I43" t="n">
-        <v>1063.275680536421</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>1092.216089620916</v>
+        <v>82.88339090485938</v>
       </c>
       <c r="K43" t="n">
-        <v>1269.610908602711</v>
+        <v>260.2782098866545</v>
       </c>
       <c r="L43" t="n">
-        <v>1552.141636603817</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M43" t="n">
-        <v>1860.419798644338</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N43" t="n">
-        <v>2166.80241144896</v>
+        <v>1157.469712732903</v>
       </c>
       <c r="O43" t="n">
-        <v>2433.780048322411</v>
+        <v>1424.447349606354</v>
       </c>
       <c r="P43" t="n">
-        <v>2638.704856250746</v>
+        <v>1629.372157534689</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018222</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018222</v>
+        <v>1587.485439024174</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018222</v>
+        <v>1587.485439024174</v>
       </c>
       <c r="T43" t="n">
-        <v>2474.384652470746</v>
+        <v>1377.492981557631</v>
       </c>
       <c r="U43" t="n">
-        <v>2474.384652470746</v>
+        <v>1088.377376515824</v>
       </c>
       <c r="V43" t="n">
-        <v>2474.384652470746</v>
+        <v>1088.377376515824</v>
       </c>
       <c r="W43" t="n">
-        <v>2474.384652470746</v>
+        <v>1088.377376515824</v>
       </c>
       <c r="X43" t="n">
-        <v>2246.395101572729</v>
+        <v>1088.377376515824</v>
       </c>
       <c r="Y43" t="n">
-        <v>2025.602522429199</v>
+        <v>1088.377376515824</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1292.653831891772</v>
+        <v>1408.002972532924</v>
       </c>
       <c r="C44" t="n">
-        <v>923.69131495136</v>
+        <v>1039.040455592512</v>
       </c>
       <c r="D44" t="n">
-        <v>923.69131495136</v>
+        <v>1039.040455592512</v>
       </c>
       <c r="E44" t="n">
-        <v>537.9030623531157</v>
+        <v>653.2522029942679</v>
       </c>
       <c r="F44" t="n">
-        <v>416.1477529820286</v>
+        <v>242.2662982046604</v>
       </c>
       <c r="G44" t="n">
-        <v>416.1477529820286</v>
+        <v>51.16415805667874</v>
       </c>
       <c r="H44" t="n">
-        <v>113.2323333600288</v>
+        <v>51.16415805667874</v>
       </c>
       <c r="I44" t="n">
         <v>51.16415805667874</v>
@@ -7676,22 +7676,22 @@
         <v>2558.207902833937</v>
       </c>
       <c r="T44" t="n">
-        <v>2349.951132766536</v>
+        <v>2558.207902833937</v>
       </c>
       <c r="U44" t="n">
-        <v>2349.951132766536</v>
+        <v>2558.207902833937</v>
       </c>
       <c r="V44" t="n">
-        <v>2018.888245422966</v>
+        <v>2558.207902833937</v>
       </c>
       <c r="W44" t="n">
-        <v>1666.119590152852</v>
+        <v>2558.207902833937</v>
       </c>
       <c r="X44" t="n">
-        <v>1292.653831891772</v>
+        <v>2184.742144572857</v>
       </c>
       <c r="Y44" t="n">
-        <v>1292.653831891772</v>
+        <v>1794.602812597046</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>51.16415805667874</v>
       </c>
       <c r="J45" t="n">
-        <v>119.0475922171009</v>
+        <v>243.8777172041056</v>
       </c>
       <c r="K45" t="n">
-        <v>575.0466028789522</v>
+        <v>507.0586157728093</v>
       </c>
       <c r="L45" t="n">
-        <v>882.4660009233239</v>
+        <v>814.4780138171811</v>
       </c>
       <c r="M45" t="n">
-        <v>1260.566806577125</v>
+        <v>1192.578819470982</v>
       </c>
       <c r="N45" t="n">
-        <v>1663.083460398269</v>
+        <v>1595.095473292126</v>
       </c>
       <c r="O45" t="n">
-        <v>2009.087765434582</v>
+        <v>1941.099778328439</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.442186013665</v>
+        <v>2199.465671155174</v>
       </c>
       <c r="Q45" t="n">
         <v>2530.233746749722</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>370.2169803969214</v>
+        <v>542.7269300774085</v>
       </c>
       <c r="C46" t="n">
-        <v>201.2807974690145</v>
+        <v>373.7907471495016</v>
       </c>
       <c r="D46" t="n">
-        <v>51.16415805667874</v>
+        <v>223.6741077371659</v>
       </c>
       <c r="E46" t="n">
-        <v>51.16415805667874</v>
+        <v>75.76101415477277</v>
       </c>
       <c r="F46" t="n">
-        <v>51.16415805667874</v>
+        <v>75.76101415477277</v>
       </c>
       <c r="G46" t="n">
-        <v>51.16415805667874</v>
+        <v>75.76101415477277</v>
       </c>
       <c r="H46" t="n">
         <v>51.16415805667874</v>
@@ -7831,25 +7831,25 @@
         <v>1685.03756853848</v>
       </c>
       <c r="S46" t="n">
-        <v>1544.749233511556</v>
+        <v>1685.03756853848</v>
       </c>
       <c r="T46" t="n">
-        <v>1544.749233511556</v>
+        <v>1462.273129991003</v>
       </c>
       <c r="U46" t="n">
-        <v>1544.749233511556</v>
+        <v>1173.157524949196</v>
       </c>
       <c r="V46" t="n">
-        <v>1290.064745305669</v>
+        <v>1173.157524949196</v>
       </c>
       <c r="W46" t="n">
-        <v>1000.647575268709</v>
+        <v>1173.157524949196</v>
       </c>
       <c r="X46" t="n">
-        <v>772.6580243706912</v>
+        <v>945.1679740511784</v>
       </c>
       <c r="Y46" t="n">
-        <v>551.8654452271611</v>
+        <v>724.3753949076482</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>148.2422363886229</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>167.9634363311152</v>
+        <v>258.1828939084838</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>97.9561905389088</v>
+        <v>69.69946722152071</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>17.26494649393206</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,16 +9006,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>97.9561905389096</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>40.32868412741897</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>267.7047941473395</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>17.26494649393209</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>97.95619053890903</v>
+        <v>97.9561905389096</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>137.5377418389895</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>137.5377418389887</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9477,19 +9477,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>97.95619053890982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>131.6844224217568</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>302.4400911934107</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>17.26494649393209</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>180.2617179611278</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9653,13 +9653,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>90.92934043501845</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>97.95619053890948</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>434.1245136151675</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>17.26494649393209</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>97.9561905389096</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>267.7047941473394</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>40.32868412741914</v>
       </c>
       <c r="R27" t="n">
         <v>17.26494649393209</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>97.95619053890903</v>
+        <v>97.9561905389096</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>69.69946722152048</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>141.4025532851999</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>385.116290734728</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22592,25 +22592,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>141.6451653636192</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22711,22 +22711,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -22756,13 +22756,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22784,25 +22784,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>164.3604017932786</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,28 +22829,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>75.75599214111358</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22939,7 +22939,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22957,13 +22957,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>55.66199177768968</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,10 +22984,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -22996,13 +22996,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23024,7 +23024,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23033,10 +23033,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>73.87698536525534</v>
       </c>
       <c r="H8" t="n">
-        <v>298.3111510613991</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -23078,10 +23078,10 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23176,28 +23176,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>121.0706486007489</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>60.68140124480941</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -23242,10 +23242,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23261,22 +23261,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>87.44528183063954</v>
+        <v>96.69977125992756</v>
       </c>
       <c r="H11" t="n">
         <v>299.8862654257798</v>
       </c>
       <c r="I11" t="n">
-        <v>61.44749355031652</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>30.68166329459089</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>99.32764374521085</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S13" t="n">
-        <v>38.05812578605079</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.4371413535349</v>
@@ -23552,13 +23552,13 @@
         <v>251.0364052149085</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>300.8083635436241</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>30.68166329459089</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T16" t="n">
-        <v>142.717781864172</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23732,19 +23732,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>87.44528183063966</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>30.69118209778748</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.4371413535349</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>299.8862654257798</v>
@@ -23890,22 +23890,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.2570059982656</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>146.8105729959039</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,25 +23938,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>12.64426127012393</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>268.6124992782246</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23972,16 +23972,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>307.327582674929</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H20" t="n">
         <v>299.8862654257798</v>
@@ -24023,13 +24023,13 @@
         <v>206.1742023667267</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0364052149085</v>
+        <v>62.36098636145655</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.2570059982656</v>
+        <v>32.70356665452061</v>
       </c>
       <c r="H22" t="n">
         <v>146.8105729959039</v>
@@ -24175,19 +24175,19 @@
         <v>99.32764374521086</v>
       </c>
       <c r="S22" t="n">
-        <v>64.99224193062759</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T22" t="n">
         <v>220.5367941620016</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.9805302947884</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>146.8105729959039</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>103.3051669679944</v>
@@ -24415,13 +24415,13 @@
         <v>193.7981713870603</v>
       </c>
       <c r="T25" t="n">
-        <v>220.5367941620016</v>
+        <v>6.381810165706213</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24443,22 +24443,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>87.44528183064011</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.4371413535349</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>272.942370499269</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I26" t="n">
         <v>61.44749355031655</v>
@@ -24503,7 +24503,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>7.54851096991402</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>283.8197321778314</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24689,10 +24689,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>30.69118209778748</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.4371413535349</v>
+        <v>35.25227770961141</v>
       </c>
       <c r="H29" t="n">
         <v>299.8862654257798</v>
@@ -24838,25 +24838,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>61.02138463425287</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>167.6075631920757</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24923,7 +24923,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24971,19 +24971,19 @@
         <v>206.1742023667267</v>
       </c>
       <c r="U32" t="n">
-        <v>190.552505771929</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>30.69118209778793</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25084,16 +25084,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.2570059982656</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>146.8105729959039</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>103.3051669679944</v>
+        <v>30.68166329459083</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,10 +25132,10 @@
         <v>286.2244489913895</v>
       </c>
       <c r="V34" t="n">
-        <v>7.548510969915185</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25151,25 +25151,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>87.44528183064011</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>112.2660251460515</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I35" t="n">
         <v>61.44749355031655</v>
@@ -25208,19 +25208,19 @@
         <v>206.1742023667267</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>30.68166329459085</v>
       </c>
       <c r="G37" t="n">
-        <v>166.2570059982656</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>146.8105729959039</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>103.3051669679944</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,16 +25363,16 @@
         <v>193.7981713870603</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U37" t="n">
         <v>286.2244489913895</v>
       </c>
       <c r="V37" t="n">
-        <v>228.0853051319159</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25394,16 +25394,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>87.44528183063954</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H38" t="n">
         <v>299.8862654257798</v>
@@ -25445,13 +25445,13 @@
         <v>206.1742023667267</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0364052149085</v>
+        <v>169.9143986862716</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>137.3857695312625</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>165.3073323102306</v>
       </c>
     </row>
     <row r="41">
@@ -25631,16 +25631,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.4371413535349</v>
+        <v>87.44528183064</v>
       </c>
       <c r="H41" t="n">
         <v>299.8862654257798</v>
@@ -25682,13 +25682,13 @@
         <v>206.1742023667267</v>
       </c>
       <c r="U41" t="n">
-        <v>224.0925102883977</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25798,10 +25798,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>104.4078844606876</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>146.8105729959039</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>99.32764374521086</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>193.7981713870603</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>12.64426127012391</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2244489913895</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,10 +25849,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25874,16 +25874,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>286.3382894643352</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.4371413535349</v>
+        <v>222.2460226070331</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,22 +25916,22 @@
         <v>120.9327970537822</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.1742023667267</v>
       </c>
       <c r="U44" t="n">
         <v>251.0364052149085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26029,7 +26029,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,7 +26038,7 @@
         <v>166.2570059982656</v>
       </c>
       <c r="H46" t="n">
-        <v>146.8105729959039</v>
+        <v>122.4596854587908</v>
       </c>
       <c r="I46" t="n">
         <v>103.3051669679944</v>
@@ -26071,19 +26071,19 @@
         <v>99.32764374521086</v>
       </c>
       <c r="S46" t="n">
-        <v>54.91271971040601</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T46" t="n">
-        <v>220.5367941620016</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2244489913895</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>779287.1708210205</v>
+        <v>779287.1708210206</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>779287.1708210206</v>
+        <v>779287.1708210205</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>773580.0648555603</v>
+        <v>773580.0648555605</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>773580.0648555603</v>
+        <v>773580.0648555605</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>773580.0648555603</v>
+        <v>773580.0648555604</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>773580.0648555603</v>
+        <v>773580.0648555602</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>773580.0648555604</v>
+        <v>773580.0648555603</v>
       </c>
     </row>
     <row r="16">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303610.2405165453</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="C2" t="n">
         <v>303610.2405165454</v>
       </c>
       <c r="D2" t="n">
-        <v>313978.8245375893</v>
+        <v>313978.8245375894</v>
       </c>
       <c r="E2" t="n">
+        <v>327765.7989333927</v>
+      </c>
+      <c r="F2" t="n">
         <v>327765.7989333926</v>
       </c>
-      <c r="F2" t="n">
-        <v>327765.7989333927</v>
-      </c>
       <c r="G2" t="n">
-        <v>327765.7989333927</v>
+        <v>327765.7989333926</v>
       </c>
       <c r="H2" t="n">
-        <v>333399.1218904381</v>
+        <v>333399.121890438</v>
       </c>
       <c r="I2" t="n">
-        <v>413794.6392019163</v>
+        <v>413794.6392019162</v>
       </c>
       <c r="J2" t="n">
-        <v>327765.7989333927</v>
+        <v>327765.7989333926</v>
       </c>
       <c r="K2" t="n">
-        <v>327765.7989333927</v>
+        <v>327765.7989333926</v>
       </c>
       <c r="L2" t="n">
         <v>327765.7989333926</v>
@@ -26350,7 +26350,7 @@
         <v>327765.7989333927</v>
       </c>
       <c r="O2" t="n">
-        <v>327765.7989333925</v>
+        <v>327765.7989333926</v>
       </c>
       <c r="P2" t="n">
         <v>322132.4759763473</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>295725.369373334</v>
+        <v>295725.3693733339</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>9371.895760703455</v>
+        <v>9371.895760703424</v>
       </c>
       <c r="I3" t="n">
         <v>131822.8924201652</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69280.52355892843</v>
+        <v>71376.38478147393</v>
       </c>
       <c r="C4" t="n">
-        <v>69280.52355892843</v>
+        <v>71376.38478147394</v>
       </c>
       <c r="D4" t="n">
-        <v>47559.7895538599</v>
+        <v>48993.41451395673</v>
       </c>
       <c r="E4" t="n">
-        <v>9072.390684793794</v>
+        <v>9332.459500253122</v>
       </c>
       <c r="F4" t="n">
-        <v>9072.390684793798</v>
+        <v>9332.459500253124</v>
       </c>
       <c r="G4" t="n">
-        <v>9072.390684793794</v>
+        <v>9332.459500253124</v>
       </c>
       <c r="H4" t="n">
-        <v>11213.65362955023</v>
+        <v>11538.4823567054</v>
       </c>
       <c r="I4" t="n">
-        <v>41772.51621496083</v>
+        <v>43021.56083414518</v>
       </c>
       <c r="J4" t="n">
-        <v>9072.390684793801</v>
+        <v>9332.459500253122</v>
       </c>
       <c r="K4" t="n">
-        <v>9072.390684793794</v>
+        <v>9332.459500253124</v>
       </c>
       <c r="L4" t="n">
-        <v>9072.390684793801</v>
+        <v>9332.459500253124</v>
       </c>
       <c r="M4" t="n">
-        <v>9072.390684793801</v>
+        <v>9332.459500253124</v>
       </c>
       <c r="N4" t="n">
-        <v>9072.390684793801</v>
+        <v>9332.459500253124</v>
       </c>
       <c r="O4" t="n">
-        <v>9072.390684793801</v>
+        <v>9332.459500253124</v>
       </c>
       <c r="P4" t="n">
-        <v>9055.968678418223</v>
+        <v>9316.037493877546</v>
       </c>
     </row>
     <row r="5">
@@ -26491,22 +26491,22 @@
         <v>94210.63199122853</v>
       </c>
       <c r="J5" t="n">
-        <v>61958.82776879413</v>
+        <v>61958.82776879412</v>
       </c>
       <c r="K5" t="n">
-        <v>61958.82776879413</v>
+        <v>61958.82776879412</v>
       </c>
       <c r="L5" t="n">
-        <v>61958.82776879413</v>
+        <v>61958.82776879412</v>
       </c>
       <c r="M5" t="n">
-        <v>61958.82776879413</v>
+        <v>61958.82776879412</v>
       </c>
       <c r="N5" t="n">
-        <v>61958.82776879413</v>
+        <v>61958.82776879412</v>
       </c>
       <c r="O5" t="n">
-        <v>61958.82776879413</v>
+        <v>61958.82776879412</v>
       </c>
       <c r="P5" t="n">
         <v>59846.921708393</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-438497.2403203369</v>
+        <v>-440593.1015428823</v>
       </c>
       <c r="C6" t="n">
-        <v>151470.6388942075</v>
+        <v>149374.777671662</v>
       </c>
       <c r="D6" t="n">
-        <v>-5899.288735229042</v>
+        <v>-7332.913695325726</v>
       </c>
       <c r="E6" t="n">
-        <v>-38990.78889352934</v>
+        <v>-39250.85770898842</v>
       </c>
       <c r="F6" t="n">
-        <v>256734.580479805</v>
+        <v>256474.5116643454</v>
       </c>
       <c r="G6" t="n">
-        <v>256734.5804798047</v>
+        <v>256474.5116643454</v>
       </c>
       <c r="H6" t="n">
-        <v>248742.8386709891</v>
+        <v>248418.0099438339</v>
       </c>
       <c r="I6" t="n">
-        <v>145988.5985755617</v>
+        <v>144739.5539563772</v>
       </c>
       <c r="J6" t="n">
-        <v>219102.3327341629</v>
+        <v>218842.2639187035</v>
       </c>
       <c r="K6" t="n">
-        <v>256734.5804798047</v>
+        <v>256474.5116643454</v>
       </c>
       <c r="L6" t="n">
-        <v>256734.5804798047</v>
+        <v>256474.5116643454</v>
       </c>
       <c r="M6" t="n">
-        <v>256734.5804798047</v>
+        <v>256474.5116643454</v>
       </c>
       <c r="N6" t="n">
-        <v>256734.5804798047</v>
+        <v>256474.5116643455</v>
       </c>
       <c r="O6" t="n">
-        <v>256734.5804798045</v>
+        <v>256474.5116643454</v>
       </c>
       <c r="P6" t="n">
-        <v>253229.5855895361</v>
+        <v>252969.5167740768</v>
       </c>
     </row>
   </sheetData>
@@ -26738,13 +26738,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="E3" t="n">
-        <v>961.5670451980345</v>
+        <v>961.5670451980343</v>
       </c>
       <c r="F3" t="n">
         <v>961.5670451980343</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26805,28 +26805,28 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>709.0225698006269</v>
+        <v>709.0225698006268</v>
       </c>
       <c r="I4" t="n">
         <v>1204.744579044595</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
         <v>639.5519757084843</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>368.0909448599695</v>
+        <v>368.0909448599692</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,10 +27027,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>34.73529704607131</v>
+        <v>34.7352970460712</v>
       </c>
       <c r="I4" t="n">
-        <v>495.722009243968</v>
+        <v>495.7220092439682</v>
       </c>
       <c r="J4" t="n">
         <v>143.8299664645161</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>34.73529704607131</v>
+        <v>34.7352970460712</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.865596161600136</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H11" t="n">
-        <v>39.5885366899874</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I11" t="n">
         <v>149.0283960200894</v>
@@ -31762,37 +31762,37 @@
         <v>328.0876422206098</v>
       </c>
       <c r="K11" t="n">
-        <v>491.7183277411437</v>
+        <v>491.7183277411436</v>
       </c>
       <c r="L11" t="n">
-        <v>610.020066271714</v>
+        <v>610.0200662717139</v>
       </c>
       <c r="M11" t="n">
-        <v>678.7648620105704</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N11" t="n">
-        <v>689.7479871047168</v>
+        <v>689.7479871047167</v>
       </c>
       <c r="O11" t="n">
-        <v>651.3094652728054</v>
+        <v>651.3094652728053</v>
       </c>
       <c r="P11" t="n">
-        <v>555.877560033302</v>
+        <v>555.8775600333018</v>
       </c>
       <c r="Q11" t="n">
-        <v>417.440897495997</v>
+        <v>417.4408974959969</v>
       </c>
       <c r="R11" t="n">
         <v>242.8222548861147</v>
       </c>
       <c r="S11" t="n">
-        <v>88.08727253246319</v>
+        <v>88.08727253246316</v>
       </c>
       <c r="T11" t="n">
         <v>16.9216471974046</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3092476929280108</v>
+        <v>0.3092476929280107</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,25 +31835,25 @@
         <v>19.97519465590634</v>
       </c>
       <c r="I12" t="n">
-        <v>71.21038966796766</v>
+        <v>71.21038966796765</v>
       </c>
       <c r="J12" t="n">
-        <v>195.4067520812346</v>
+        <v>195.4067520812345</v>
       </c>
       <c r="K12" t="n">
-        <v>333.9812632363777</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L12" t="n">
-        <v>449.0790242691387</v>
+        <v>449.0790242691386</v>
       </c>
       <c r="M12" t="n">
-        <v>524.0540396329287</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N12" t="n">
-        <v>537.9241906905495</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O12" t="n">
-        <v>492.0955424609224</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P12" t="n">
         <v>394.9500567342644</v>
@@ -31865,10 +31865,10 @@
         <v>128.4145574700319</v>
       </c>
       <c r="S12" t="n">
-        <v>38.41732487182711</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T12" t="n">
-        <v>8.33660485412258</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U12" t="n">
         <v>0.1360708082827408</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.733973360193177</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H13" t="n">
         <v>15.41659951153571</v>
       </c>
       <c r="I13" t="n">
-        <v>52.14530795926392</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J13" t="n">
         <v>122.5919165656576</v>
       </c>
       <c r="K13" t="n">
-        <v>201.45617766608</v>
+        <v>201.4561776660799</v>
       </c>
       <c r="L13" t="n">
-        <v>257.7945484781747</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M13" t="n">
         <v>271.8082059073722</v>
       </c>
       <c r="N13" t="n">
-        <v>265.345214292107</v>
+        <v>265.3452142921069</v>
       </c>
       <c r="O13" t="n">
-        <v>245.0892527662139</v>
+        <v>245.0892527662138</v>
       </c>
       <c r="P13" t="n">
-        <v>209.7161962182729</v>
+        <v>209.7161962182728</v>
       </c>
       <c r="Q13" t="n">
         <v>145.1966238249032</v>
       </c>
       <c r="R13" t="n">
-        <v>77.96574763195864</v>
+        <v>77.96574763195862</v>
       </c>
       <c r="S13" t="n">
-        <v>30.21842664991199</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T13" t="n">
-        <v>7.408795266279935</v>
+        <v>7.408795266279934</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09458036510144611</v>
+        <v>0.0945803651014461</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>344.539421127999</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35258,7 +35258,7 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>349.2738770933423</v>
+        <v>439.4933346707109</v>
       </c>
       <c r="N9" t="n">
         <v>200.663375406732</v>
@@ -35270,7 +35270,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>147.0417376939236</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K11" t="n">
-        <v>271.6284766961631</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L11" t="n">
-        <v>374.2536513017267</v>
+        <v>374.2536513017266</v>
       </c>
       <c r="M11" t="n">
-        <v>448.4186287832977</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N11" t="n">
-        <v>460.3349235081259</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O11" t="n">
-        <v>421.2112538511186</v>
+        <v>421.2112538511185</v>
       </c>
       <c r="P11" t="n">
-        <v>324.6445642780324</v>
+        <v>324.6445642780323</v>
       </c>
       <c r="Q11" t="n">
-        <v>195.1352076215475</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R11" t="n">
-        <v>27.23671707198261</v>
+        <v>27.23671707198255</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>194.6601607549767</v>
       </c>
       <c r="K12" t="n">
-        <v>294.0960148009275</v>
+        <v>265.8392914835393</v>
       </c>
       <c r="L12" t="n">
         <v>310.5246444892645</v>
       </c>
       <c r="M12" t="n">
-        <v>381.9200057109104</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N12" t="n">
-        <v>406.5824786072162</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O12" t="n">
-        <v>349.499298016478</v>
+        <v>349.4992980164779</v>
       </c>
       <c r="P12" t="n">
-        <v>260.9756493199342</v>
+        <v>260.9756493199341</v>
       </c>
       <c r="Q12" t="n">
         <v>334.10916726722</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>28.25672331738873</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>29.23273644898482</v>
+        <v>29.2327364489848</v>
       </c>
       <c r="K13" t="n">
-        <v>179.1866858401971</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L13" t="n">
-        <v>285.3845737384909</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M13" t="n">
-        <v>311.3920828692128</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N13" t="n">
-        <v>309.4773866713356</v>
+        <v>309.4773866713355</v>
       </c>
       <c r="O13" t="n">
         <v>269.6743806802535</v>
       </c>
       <c r="P13" t="n">
-        <v>206.9947554831664</v>
+        <v>206.9947554831663</v>
       </c>
       <c r="Q13" t="n">
-        <v>59.03458057320883</v>
+        <v>59.0345805732088</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>194.6601607549767</v>
       </c>
       <c r="K15" t="n">
-        <v>196.1398242620186</v>
+        <v>294.0960148009282</v>
       </c>
       <c r="L15" t="n">
         <v>310.5246444892645</v>
       </c>
       <c r="M15" t="n">
-        <v>422.2486898383293</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N15" t="n">
-        <v>674.2872727545556</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O15" t="n">
         <v>349.4992980164779</v>
@@ -35744,7 +35744,7 @@
         <v>260.9756493199341</v>
       </c>
       <c r="Q15" t="n">
-        <v>124.0318795313709</v>
+        <v>334.10916726722</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>194.6601607549767</v>
       </c>
       <c r="K18" t="n">
-        <v>294.0960148009277</v>
+        <v>294.0960148009282</v>
       </c>
       <c r="L18" t="n">
         <v>310.5246444892645</v>
@@ -36130,7 +36130,7 @@
         <v>448.4186287832974</v>
       </c>
       <c r="N20" t="n">
-        <v>597.8726653471152</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O20" t="n">
         <v>421.2112538511185</v>
@@ -36139,7 +36139,7 @@
         <v>324.6445642780323</v>
       </c>
       <c r="Q20" t="n">
-        <v>195.1352076215474</v>
+        <v>332.6729494605361</v>
       </c>
       <c r="R20" t="n">
         <v>27.23671707198255</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>194.6601607549767</v>
+        <v>68.56912541456785</v>
       </c>
       <c r="K21" t="n">
-        <v>294.0960148009285</v>
+        <v>196.1398242620186</v>
       </c>
       <c r="L21" t="n">
-        <v>310.5246444892645</v>
+        <v>442.2090669110212</v>
       </c>
       <c r="M21" t="n">
         <v>381.9200057109103</v>
       </c>
       <c r="N21" t="n">
-        <v>406.5824786072161</v>
+        <v>709.0225698006268</v>
       </c>
       <c r="O21" t="n">
         <v>349.4992980164779</v>
@@ -36218,7 +36218,7 @@
         <v>260.9756493199341</v>
       </c>
       <c r="Q21" t="n">
-        <v>334.10916726722</v>
+        <v>124.0318795313709</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>316.1383528659973</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K23" t="n">
-        <v>451.8901946572908</v>
+        <v>595.7738892673278</v>
       </c>
       <c r="L23" t="n">
         <v>791.9148658521771</v>
@@ -36373,13 +36373,13 @@
         <v>802.0114351138639</v>
       </c>
       <c r="P23" t="n">
-        <v>324.6445642780323</v>
+        <v>415.5739047130508</v>
       </c>
       <c r="Q23" t="n">
         <v>195.1352076215474</v>
       </c>
       <c r="R23" t="n">
-        <v>92.953136944965</v>
+        <v>27.23671707198255</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>194.6601607549767</v>
+        <v>68.56912541456785</v>
       </c>
       <c r="K24" t="n">
-        <v>294.0960148009281</v>
+        <v>196.1398242620186</v>
       </c>
       <c r="L24" t="n">
         <v>310.5246444892645</v>
@@ -36446,7 +36446,7 @@
         <v>381.9200057109103</v>
       </c>
       <c r="N24" t="n">
-        <v>406.5824786072161</v>
+        <v>840.7069922223836</v>
       </c>
       <c r="O24" t="n">
         <v>349.4992980164779</v>
@@ -36455,7 +36455,7 @@
         <v>260.9756493199341</v>
       </c>
       <c r="Q24" t="n">
-        <v>334.10916726722</v>
+        <v>124.0318795313709</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>195.1352076215474</v>
       </c>
       <c r="R26" t="n">
-        <v>27.23671707198255</v>
+        <v>27.23671707198209</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>194.6601607549767</v>
       </c>
       <c r="K27" t="n">
-        <v>294.0960148009282</v>
+        <v>196.1398242620186</v>
       </c>
       <c r="L27" t="n">
         <v>310.5246444892645</v>
@@ -36683,7 +36683,7 @@
         <v>381.9200057109103</v>
       </c>
       <c r="N27" t="n">
-        <v>406.5824786072161</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O27" t="n">
         <v>349.4992980164779</v>
@@ -36692,7 +36692,7 @@
         <v>260.9756493199341</v>
       </c>
       <c r="Q27" t="n">
-        <v>334.10916726722</v>
+        <v>164.36056365879</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>195.1352076215474</v>
       </c>
       <c r="R29" t="n">
-        <v>27.23671707198255</v>
+        <v>27.23671707198209</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>194.6601607549767</v>
       </c>
       <c r="K30" t="n">
-        <v>294.0960148009277</v>
+        <v>294.0960148009282</v>
       </c>
       <c r="L30" t="n">
         <v>310.5246444892645</v>
@@ -37084,7 +37084,7 @@
         <v>421.2112538511185</v>
       </c>
       <c r="P32" t="n">
-        <v>324.6445642780323</v>
+        <v>324.644564278032</v>
       </c>
       <c r="Q32" t="n">
         <v>195.1352076215474</v>
@@ -37312,7 +37312,7 @@
         <v>374.2536513017266</v>
       </c>
       <c r="M35" t="n">
-        <v>448.4186287832975</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N35" t="n">
         <v>460.3349235081258</v>
@@ -37327,7 +37327,7 @@
         <v>195.1352076215474</v>
       </c>
       <c r="R35" t="n">
-        <v>27.23671707198255</v>
+        <v>27.23671707198209</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>460.3349235081258</v>
       </c>
       <c r="O41" t="n">
-        <v>421.2112538511184</v>
+        <v>421.2112538511185</v>
       </c>
       <c r="P41" t="n">
         <v>324.6445642780323</v>
@@ -37801,7 +37801,7 @@
         <v>195.1352076215474</v>
       </c>
       <c r="R41" t="n">
-        <v>27.23671707198255</v>
+        <v>27.23671707198209</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>68.56912541456785</v>
+        <v>194.6601607549767</v>
       </c>
       <c r="K45" t="n">
-        <v>460.6050612745972</v>
+        <v>265.8392914835391</v>
       </c>
       <c r="L45" t="n">
         <v>310.5246444892645</v>
@@ -38111,10 +38111,10 @@
         <v>349.4992980164779</v>
       </c>
       <c r="P45" t="n">
-        <v>402.378202605134</v>
+        <v>260.9756493199341</v>
       </c>
       <c r="Q45" t="n">
-        <v>124.0318795313709</v>
+        <v>334.10916726722</v>
       </c>
       <c r="R45" t="n">
         <v>28.25672331738873</v>
